--- a/opciones educativas/resumen_asignacion_con_totales_y_proporciones.xlsx
+++ b/opciones educativas/resumen_asignacion_con_totales_y_proporciones.xlsx
@@ -527,11 +527,9 @@
         <v>315</v>
       </c>
       <c r="E2" t="n">
-        <v>250</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.4</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -547,11 +545,9 @@
         <v>315</v>
       </c>
       <c r="E3" t="n">
-        <v>380</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -587,11 +583,9 @@
         <v>151</v>
       </c>
       <c r="E5" t="n">
-        <v>152</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -607,11 +601,9 @@
         <v>151</v>
       </c>
       <c r="E6" t="n">
-        <v>150</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -647,11 +639,9 @@
         <v>200</v>
       </c>
       <c r="E8" t="n">
-        <v>77</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.19</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -667,11 +657,9 @@
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>323</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.81</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -707,11 +695,9 @@
         <v>40</v>
       </c>
       <c r="E11" t="n">
-        <v>45</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -727,11 +713,9 @@
         <v>41</v>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -767,11 +751,9 @@
         <v>42</v>
       </c>
       <c r="E14" t="n">
-        <v>73</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -787,11 +769,9 @@
         <v>43</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -827,11 +807,9 @@
         <v>141</v>
       </c>
       <c r="E17" t="n">
-        <v>56</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.2</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -847,11 +825,9 @@
         <v>142</v>
       </c>
       <c r="E18" t="n">
-        <v>227</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.8</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="F18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -889,9 +865,7 @@
       <c r="E20" t="n">
         <v>85</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.9</v>
-      </c>
+      <c r="F20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -909,9 +883,7 @@
       <c r="E21" t="n">
         <v>9</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="F21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -949,9 +921,7 @@
       <c r="E23" t="n">
         <v>10</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.17</v>
-      </c>
+      <c r="F23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -969,9 +939,7 @@
       <c r="E24" t="n">
         <v>50</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.83</v>
-      </c>
+      <c r="F24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1007,11 +975,9 @@
         <v>27</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1027,11 +993,9 @@
         <v>28</v>
       </c>
       <c r="E27" t="n">
-        <v>40</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.73</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1067,11 +1031,9 @@
         <v>55</v>
       </c>
       <c r="E29" t="n">
-        <v>95</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.86</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -1087,11 +1049,9 @@
         <v>55</v>
       </c>
       <c r="E30" t="n">
-        <v>15</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1127,11 +1087,9 @@
         <v>105</v>
       </c>
       <c r="E32" t="n">
-        <v>56</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -1147,11 +1105,9 @@
         <v>105</v>
       </c>
       <c r="E33" t="n">
-        <v>154</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.73</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -1187,11 +1143,9 @@
         <v>30</v>
       </c>
       <c r="E35" t="n">
-        <v>18</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.3</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -1207,11 +1161,9 @@
         <v>30</v>
       </c>
       <c r="E36" t="n">
-        <v>42</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.7</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -1247,11 +1199,9 @@
         <v>122</v>
       </c>
       <c r="E38" t="n">
-        <v>50</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.2</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -1267,11 +1217,9 @@
         <v>123</v>
       </c>
       <c r="E39" t="n">
-        <v>195</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.8</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="F39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -1307,11 +1255,9 @@
         <v>27</v>
       </c>
       <c r="E41" t="n">
-        <v>41</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.75</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -1327,11 +1273,9 @@
         <v>28</v>
       </c>
       <c r="E42" t="n">
-        <v>14</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -1367,11 +1311,9 @@
         <v>87</v>
       </c>
       <c r="E44" t="n">
-        <v>39</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.22</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1387,11 +1329,9 @@
         <v>88</v>
       </c>
       <c r="E45" t="n">
-        <v>136</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.78</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -1427,11 +1367,9 @@
         <v>90</v>
       </c>
       <c r="E47" t="n">
-        <v>33</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.18</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -1447,11 +1385,9 @@
         <v>90</v>
       </c>
       <c r="E48" t="n">
-        <v>147</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.82</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="F48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -1487,11 +1423,9 @@
         <v>60</v>
       </c>
       <c r="E50" t="n">
-        <v>51</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.42</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -1507,11 +1441,9 @@
         <v>60</v>
       </c>
       <c r="E51" t="n">
-        <v>69</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.58</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -1547,11 +1479,9 @@
         <v>90</v>
       </c>
       <c r="E53" t="n">
-        <v>119</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.66</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -1567,11 +1497,9 @@
         <v>90</v>
       </c>
       <c r="E54" t="n">
-        <v>61</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.34</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -1607,11 +1535,9 @@
         <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>35</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.32</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -1627,11 +1553,9 @@
         <v>55</v>
       </c>
       <c r="E57" t="n">
-        <v>75</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -1667,11 +1591,9 @@
         <v>45</v>
       </c>
       <c r="E59" t="n">
-        <v>37</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.41</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -1687,11 +1609,9 @@
         <v>45</v>
       </c>
       <c r="E60" t="n">
-        <v>53</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.59</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -1727,11 +1647,9 @@
         <v>22</v>
       </c>
       <c r="E62" t="n">
-        <v>31</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.69</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -1747,11 +1665,9 @@
         <v>23</v>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.31</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -1787,11 +1703,9 @@
         <v>22</v>
       </c>
       <c r="E65" t="n">
-        <v>25</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.56</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -1807,11 +1721,9 @@
         <v>23</v>
       </c>
       <c r="E66" t="n">
-        <v>20</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.44</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -1847,11 +1759,9 @@
         <v>22</v>
       </c>
       <c r="E68" t="n">
-        <v>18</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.4</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -1867,11 +1777,9 @@
         <v>23</v>
       </c>
       <c r="E69" t="n">
-        <v>27</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -1907,11 +1815,9 @@
         <v>45</v>
       </c>
       <c r="E71" t="n">
-        <v>44</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.49</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -1927,11 +1833,9 @@
         <v>45</v>
       </c>
       <c r="E72" t="n">
-        <v>46</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.51</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -1967,11 +1871,9 @@
         <v>45</v>
       </c>
       <c r="E74" t="n">
-        <v>51</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -1987,11 +1889,9 @@
         <v>45</v>
       </c>
       <c r="E75" t="n">
-        <v>39</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.43</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -2027,11 +1927,9 @@
         <v>45</v>
       </c>
       <c r="E77" t="n">
-        <v>44</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -2047,11 +1945,9 @@
         <v>45</v>
       </c>
       <c r="E78" t="n">
-        <v>46</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -2087,11 +1983,9 @@
         <v>112</v>
       </c>
       <c r="E80" t="n">
-        <v>67</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.3</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -2107,11 +2001,9 @@
         <v>113</v>
       </c>
       <c r="E81" t="n">
-        <v>158</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.7</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -2147,11 +2039,9 @@
         <v>67</v>
       </c>
       <c r="E83" t="n">
-        <v>77</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.57</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -2167,11 +2057,9 @@
         <v>68</v>
       </c>
       <c r="E84" t="n">
-        <v>58</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -2207,11 +2095,9 @@
         <v>65</v>
       </c>
       <c r="E86" t="n">
-        <v>61</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.47</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -2227,11 +2113,9 @@
         <v>65</v>
       </c>
       <c r="E87" t="n">
-        <v>69</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -2267,11 +2151,9 @@
         <v>190</v>
       </c>
       <c r="E89" t="n">
-        <v>146</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.38</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -2287,11 +2169,9 @@
         <v>190</v>
       </c>
       <c r="E90" t="n">
-        <v>234</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.62</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -2327,11 +2207,9 @@
         <v>45</v>
       </c>
       <c r="E92" t="n">
-        <v>21</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -2347,11 +2225,9 @@
         <v>45</v>
       </c>
       <c r="E93" t="n">
-        <v>69</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.77</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -2387,11 +2263,9 @@
         <v>45</v>
       </c>
       <c r="E95" t="n">
-        <v>29</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.32</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -2407,11 +2281,9 @@
         <v>45</v>
       </c>
       <c r="E96" t="n">
-        <v>61</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.68</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -2447,11 +2319,9 @@
         <v>150</v>
       </c>
       <c r="E98" t="n">
-        <v>87</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.29</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -2467,11 +2337,9 @@
         <v>150</v>
       </c>
       <c r="E99" t="n">
-        <v>213</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.71</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -2507,11 +2375,9 @@
         <v>75</v>
       </c>
       <c r="E101" t="n">
-        <v>43</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.29</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -2527,11 +2393,9 @@
         <v>75</v>
       </c>
       <c r="E102" t="n">
-        <v>107</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.71</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -2567,11 +2431,9 @@
         <v>107</v>
       </c>
       <c r="E104" t="n">
-        <v>65</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.3</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -2587,11 +2449,9 @@
         <v>108</v>
       </c>
       <c r="E105" t="n">
-        <v>150</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.7</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -2627,11 +2487,9 @@
         <v>175</v>
       </c>
       <c r="E107" t="n">
-        <v>92</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.26</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="F107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -2647,11 +2505,9 @@
         <v>175</v>
       </c>
       <c r="E108" t="n">
-        <v>258</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.74</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -2687,11 +2543,9 @@
         <v>250</v>
       </c>
       <c r="E110" t="n">
-        <v>139</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.28</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
@@ -2707,11 +2561,9 @@
         <v>250</v>
       </c>
       <c r="E111" t="n">
-        <v>361</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.72</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="F111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -2747,11 +2599,9 @@
         <v>150</v>
       </c>
       <c r="E113" t="n">
-        <v>78</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.26</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
@@ -2767,11 +2617,9 @@
         <v>150</v>
       </c>
       <c r="E114" t="n">
-        <v>222</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.74</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
@@ -2807,11 +2655,9 @@
         <v>200</v>
       </c>
       <c r="E116" t="n">
-        <v>136</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.34</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -2827,11 +2673,9 @@
         <v>200</v>
       </c>
       <c r="E117" t="n">
-        <v>264</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.66</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
@@ -2867,11 +2711,9 @@
         <v>325</v>
       </c>
       <c r="E119" t="n">
-        <v>308</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.47</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="F119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -2887,11 +2729,9 @@
         <v>325</v>
       </c>
       <c r="E120" t="n">
-        <v>342</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.53</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="F120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
@@ -2927,11 +2767,9 @@
         <v>100</v>
       </c>
       <c r="E122" t="n">
-        <v>59</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.3</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -2947,11 +2785,9 @@
         <v>100</v>
       </c>
       <c r="E123" t="n">
-        <v>141</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.7</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F123"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
